--- a/output_data/summary_plot_statistics for report.xlsx
+++ b/output_data/summary_plot_statistics for report.xlsx
@@ -411,13 +411,16 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="3"/>
+    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
